--- a/biology/Botanique/Potentilla_reptans/Potentilla_reptans.xlsx
+++ b/biology/Botanique/Potentilla_reptans/Potentilla_reptans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentille rampante, Quintefeuille, Herbe à cinq feuilles, Main-de-Mars
 La potentille rampante, ou quintefeuille, nommée scientifiquement Potentilla reptans, est une espèce de plantes à fleurs de la famille des Rosacées.
@@ -513,11 +525,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace haute de 10 à 20 cm. Elle forme, à partir d'une rosette basilaire persistante, des stolons pouvant atteindre 100 cm et qui souvent s'enracinent au niveau des nœuds. Elle se reconnaît notamment à ses feuilles divisées en 5 folioles dentées (parfois 7), à ses fleurs de 15 à 25 mm de diamètre, comportant 5 sépales étroits et 5 pétales jaunes deux fois plus longs que les sépales. Elle est très courante dans les jardins et les endroits incultes où elle peut devenir envahissante.
-Caractéristiques
-Organes reproducteurs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Potentilla_reptans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentilla_reptans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs :
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-novembre
 Inflorescence : cyme unipare hélicoïde
@@ -535,37 +584,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Potentilla_reptans</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentilla_reptans</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hybridation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La potentille rampante forme communément des hybrides toujours stériles avec Potentilla anglica ou Potentilla erecta. Ils sont difficiles à identifier[1]. Pour distinguer ces hybrides de leurs parents, vérifier si ces derniers forment des carpelles renflés (fertiles).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -587,14 +605,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La racine de Quintefeuille pouvait être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle[2] pour les propriétés toniques de ses racines, car elle calme les hémorragies et les diarrhées.
-On se servait de ses longues tiges pour lier les gerbes de céréales lors des moissons.
-La plante serait toxique pour les moutons.
+          <t>Hybridation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La potentille rampante forme communément des hybrides toujours stériles avec Potentilla anglica ou Potentilla erecta. Ils sont difficiles à identifier. Pour distinguer ces hybrides de leurs parents, vérifier si ces derniers forment des carpelles renflés (fertiles).
 </t>
         </is>
       </c>
@@ -620,12 +638,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine de Quintefeuille pouvait être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle pour les propriétés toniques de ses racines, car elle calme les hémorragies et les diarrhées.
+On se servait de ses longues tiges pour lier les gerbes de céréales lors des moissons.
+La plante serait toxique pour les moutons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Potentilla_reptans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentilla_reptans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Héraldique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La quintefeuille est un meuble utilisé en héraldique[3]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La quintefeuille est un meuble utilisé en héraldique. 
 Elle désigne une fleur à cinq pétales ayant chacun une pointe et dont le centre est percé en rond, de manière que l’on voit le champ de l’écu à travers.
 La quintefeuille est généralement présente seule ou posée deux et un. 
 </t>
